--- a/data/Codes for Zillow.xlsx
+++ b/data/Codes for Zillow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coryarussell/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/granthicks/Desktop/Github/GT Data Analytics Bootcamp/GT-ATL-DATA-PT-09-2020-U-C-2/final_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFF60AD-8638-A543-A950-475277D668D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A3DC87-E79B-014E-8B34-AF53287A87AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36780" yWindow="2680" windowWidth="26340" windowHeight="14720" xr2:uid="{3C15F1EE-93E0-8F43-9C49-36DB22EB1B25}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{3C15F1EE-93E0-8F43-9C49-36DB22EB1B25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1631,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D8AA19-0841-3A4C-B036-659C45128A56}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
